--- a/testkes.xlsx
+++ b/testkes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7D56A59-A90B-4444-8929-06B6799A1EA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D37AAEF6-F71C-4E11-A198-2C61D1C14380}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{81E58658-C611-47CA-80E1-A3A36AD58E8A}"/>
   </bookViews>
@@ -34,23 +34,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="73">
   <si>
     <t>App Name</t>
   </si>
   <si>
-    <t>GoJek</t>
-  </si>
-  <si>
     <t>Tanggal Pengujian</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>4.87.1</t>
-  </si>
-  <si>
     <t>Passed</t>
   </si>
   <si>
@@ -75,15 +69,9 @@
     <t>Device</t>
   </si>
   <si>
-    <t>Iphone 11</t>
-  </si>
-  <si>
     <t>OS</t>
   </si>
   <si>
-    <t>17.5</t>
-  </si>
-  <si>
     <t>Test Scenario</t>
   </si>
   <si>
@@ -111,9 +99,6 @@
     <t>Priority</t>
   </si>
   <si>
-    <t>Link  Record Video</t>
-  </si>
-  <si>
     <t>Login Berhasil</t>
   </si>
   <si>
@@ -136,9 +121,6 @@
   </si>
   <si>
     <t>High</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1pc_oFVEJ_Azemxgb_HU6Ey1zSosB0sR9/view?usp=sharing</t>
   </si>
   <si>
     <t>Login gagal</t>
@@ -192,28 +174,133 @@
     <t>Verifikasi pendaftaran berhasil</t>
   </si>
   <si>
-    <t>1. Masukkan 'admin' pada field nama lengkap.&lt;br&gt;2. Masukkan 'adminss2@gmail.com' pada field email.&lt;br&gt;3. Masukkan 'mysqladmin' pada field password.&lt;br&gt;4. Masukkan 'mysqladmin' pada field konfirmasi password.&lt;br&gt;5. Tekan tombol Enter untuk submit formulir pendaftaran.</t>
-  </si>
-  <si>
     <t>Pengguna diarahkan ke halaman verifikasi dengan URL https://fuatanshori.com/masuk/?command=verification&amp;email=adminss2@gmail.com.</t>
+  </si>
+  <si>
+    <t>Verifikasi penambahan mata pelajaran baru berhasil di halaman admin.</t>
+  </si>
+  <si>
+    <t>Tambah Mapel Sukses</t>
+  </si>
+  <si>
+    <t>TC_Tambah Mapel_1</t>
+  </si>
+  <si>
+    <t>TC_REGISTER_2</t>
+  </si>
+  <si>
+    <t>Pengguna telah masuk ke halaman admin dengan kredensial yang valid.</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Pesan sukses harus muncul dengan teks "Matapelajaran “Fisika” berhasil ditambahkan."</t>
+  </si>
+  <si>
+    <t>Buka halaman login.
+Masukkan email "muhammadalghifari602@gmail.com" dan password "mysqladmin".
+Tekan tombol Enter untuk masuk.
+Buka halaman tambah mata pelajaran baru di URL "https://fuatanshori.com/admin/mapel/matapelajaran/add/".
+Masukkan nama mata pelajaran "Fisika" di kolom nama_mapel.
+Masukkan deskripsi singkat "ini deskripsi" di kolom mini_description.
+Tekan tombol Enter atau simpan (save).
+Temukan elemen dengan kelas 'success' untuk memverifikasi pesan keberhasilan.</t>
+  </si>
+  <si>
+    <t>Dilakukan verifikasi hasil sesuai dengan Expected Result.</t>
+  </si>
+  <si>
+    <t>Masukkan 'admin' pada field nama lengkap.Masukkan 'adminss2@gmail.com' pada field email. Masukkan 'mysqladmin' pada field password Masukkan 'mysqladmin' pada field konfirmasi password.Tekan tombol Enter untuk submit formulir pendaftaran.</t>
+  </si>
+  <si>
+    <t>Tambah Mapel Gagal</t>
+  </si>
+  <si>
+    <t>TC_Tambah Mapel_2</t>
+  </si>
+  <si>
+    <t>Verifikasi bahwa form tidak dapat disubmit jika nama mata pelajaran kosong.</t>
+  </si>
+  <si>
+    <t>Buka halaman login.
+Masukkan email "muhammadalghifari602@gmail.com" dan password "mysqladmin".
+Tekan tombol Enter untuk masuk.
+Buka halaman tambah mata pelajaran baru di URL "https://fuatanshori.com/admin/mapel/matapelajaran/add/".
+Biarkan kolom nama_mapel kosong (tidak memasukkan nilai apa pun).
+Masukkan deskripsi singkat "ini deskripsi" di kolom mini_description.
+Tekan tombol Enter atau simpan (save).
+Temukan pesan kesalahan dengan teks "Bidang ini tidak boleh kosong."</t>
+  </si>
+  <si>
+    <t>Seharusnya muncul pesan kesalahan dengan teks "Bidang ini tidak boleh kosong." ketika mencoba menyimpan form dengan nama_mapel kosong.</t>
+  </si>
+  <si>
+    <t>Tambah Modul Sukses</t>
+  </si>
+  <si>
+    <t>TC_Tambah Modul_1</t>
+  </si>
+  <si>
+    <t>Verifikasi penambahan modul baru berhasil di halaman admin.</t>
+  </si>
+  <si>
+    <t>Buka halaman login.
+Masukkan email "muhammadalghifari602@gmail.com" dan password "mysqladmin".
+Tekan tombol Enter untuk masuk.
+Buka halaman tambah modul baru di URL "https://fuatanshori.com/admin/modul/modul/add/".
+Masukkan nama modul "Pertemuan 1" di kolom nama_modul.
+Masukkan deskripsi singkat "pertemuan pertama bab 1" di kolom mini_description.
+Pilih mata pelajaran dengan menekan tombol panah bawah pada kolom mata_pelajaran.
+Masukkan file modul dari path "D:\PY\file.pdf" di kolom modul.
+Tekan tombol Enter atau simpan (save).
+Temukan elemen dengan kelas 'success' untuk memverifikasi pesan keberhasilan.</t>
+  </si>
+  <si>
+    <t>Pesan sukses harus muncul dengan teks "Modul “Pertemuan 1” berhasil ditambahkan."</t>
+  </si>
+  <si>
+    <t>Tambah Modul Gagal</t>
+  </si>
+  <si>
+    <t>TC_Tambah Modul_2</t>
+  </si>
+  <si>
+    <t>Verifikasi kegagalan penambahan modul baru jika file yang diupload bukan PDF.</t>
+  </si>
+  <si>
+    <t>Buka halaman login.
+Masukkan email "muhammadalghifari602@gmail.com" dan password "mysqladmin".
+Tekan tombol Enter untuk masuk.
+Buka halaman tambah modul baru di URL "https://fuatanshori.com/admin/modul/modul/add/".
+Masukkan nama modul "Pertemuan 1" di kolom nama_modul.
+Masukkan deskripsi singkat "pertemuan pertama bab 1" di kolom mini_description.
+Pilih mata pelajaran dengan menekan tombol panah bawah pada kolom mata_pelajaran.
+Masukkan file modul dari path "D:\PY\file.docx" di kolom modul.
+Tekan tombol Enter atau simpan (save).
+Temukan pesan kesalahan dengan teks "Ekstensi berkas “docx” tidak diizinkan. Ekstensi diizinkan adalah: pdf."</t>
+  </si>
+  <si>
+    <t>Pesan kesalahan harus muncul dengan teks "Ekstensi berkas “docx” tidak diizinkan. Ekstensi diizinkan adalah: pdf."</t>
+  </si>
+  <si>
+    <t>Bimbel Web</t>
+  </si>
+  <si>
+    <t>LAPTOP ASUS TUF GAMING</t>
+  </si>
+  <si>
+    <t>WINDOWS !!</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -321,11 +408,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -336,24 +422,20 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -666,10 +748,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3C0ECA5-4EE2-4F60-B122-AF73B6798DDF}">
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="59" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -683,257 +765,349 @@
     <col min="7" max="7" width="28.6640625" customWidth="1"/>
     <col min="8" max="8" width="16.109375" customWidth="1"/>
     <col min="9" max="9" width="14.88671875" customWidth="1"/>
-    <col min="10" max="10" width="25.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="3">
+        <v>45461</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3">
-        <v>45432</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="2"/>
+      <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="E2" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="2">
+      <c r="D3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="6"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="7"/>
+    </row>
+    <row r="11" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="202.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="10" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="2">
+      <c r="F14" s="10" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+      <c r="G14" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H14" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="6"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="7"/>
-    </row>
-    <row r="11" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H11" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="I11" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="J11" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="10" t="s">
+      <c r="I14" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="H12" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="I12" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="J12" s="12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="93.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" s="10" t="s">
+    </row>
+    <row r="15" spans="1:9" ht="376.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E13" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="G13" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="H13" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="I13" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="J13" s="12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="202.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14" s="10" t="s">
+      <c r="E15" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F15" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="E14" s="10" t="s">
+      <c r="G15" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="I15" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="390" x14ac:dyDescent="0.3">
+      <c r="A16" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="F14" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="G14" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="H14" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="I14" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="J14" s="12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="187.2" x14ac:dyDescent="0.3">
-      <c r="A15" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="10" t="s">
+      <c r="D16" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="E15" s="10" t="s">
+      <c r="E16" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="I16" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="F15" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="G15" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="H15" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="I15" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="J15" s="12" t="s">
-        <v>34</v>
+    </row>
+    <row r="17" spans="1:9" ht="390" x14ac:dyDescent="0.3">
+      <c r="A17" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="I17" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="I18" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="I19" s="10" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="J12" r:id="rId1" xr:uid="{ED528A97-AB48-4826-B811-EB29CA821550}"/>
-    <hyperlink ref="J13" r:id="rId2" xr:uid="{B04E609E-4B93-445E-BDA2-5CFE1164AE61}"/>
-    <hyperlink ref="J14" r:id="rId3" xr:uid="{F7AE9E67-A013-4549-9360-18C26A6BB7C6}"/>
-    <hyperlink ref="J15" r:id="rId4" xr:uid="{A101CF94-C564-46FD-8618-EE03828ED9C5}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>